--- a/Excel-XLSX/UN-MAU.xlsx
+++ b/Excel-XLSX/UN-MAU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="737">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>iKzU0F</t>
+    <t>n4bG8k</t>
   </si>
   <si>
     <t>1987</t>
@@ -2166,73 +2166,67 @@
     <t>496</t>
   </si>
   <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>153974</t>
+  </si>
+  <si>
+    <t>4155</t>
+  </si>
+  <si>
+    <t>2422</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
     <t>512</t>
   </si>
   <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>130598</t>
-  </si>
-  <si>
-    <t>4671</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>509</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
     <t>513</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>515</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2611,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V516"/>
+  <dimension ref="A1:V514"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -35513,7 +35507,7 @@
         <v>34</v>
       </c>
       <c r="O484" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P484" s="2" t="s">
         <v>34</v>
@@ -35578,10 +35572,10 @@
         <v>32</v>
       </c>
       <c r="N485" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O485" s="2" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="P485" s="2" t="s">
         <v>34</v>
@@ -35646,10 +35640,10 @@
         <v>32</v>
       </c>
       <c r="N486" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="O486" s="2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="P486" s="2" t="s">
         <v>59</v>
@@ -35717,7 +35711,7 @@
         <v>34</v>
       </c>
       <c r="O487" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="P487" s="2" t="s">
         <v>34</v>
@@ -35850,10 +35844,10 @@
         <v>32</v>
       </c>
       <c r="N489" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O489" s="2" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="P489" s="2" t="s">
         <v>34</v>
@@ -35921,7 +35915,7 @@
         <v>56</v>
       </c>
       <c r="O490" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="P490" s="2" t="s">
         <v>34</v>
@@ -35986,7 +35980,7 @@
         <v>32</v>
       </c>
       <c r="N491" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O491" s="2" t="s">
         <v>142</v>
@@ -36190,10 +36184,10 @@
         <v>32</v>
       </c>
       <c r="N494" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O494" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P494" s="2" t="s">
         <v>34</v>
@@ -36261,7 +36255,7 @@
         <v>34</v>
       </c>
       <c r="O495" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P495" s="2" t="s">
         <v>34</v>
@@ -36329,7 +36323,7 @@
         <v>34</v>
       </c>
       <c r="O496" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P496" s="2" t="s">
         <v>34</v>
@@ -36394,7 +36388,7 @@
         <v>32</v>
       </c>
       <c r="N497" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O497" s="2" t="s">
         <v>716</v>
@@ -36462,10 +36456,10 @@
         <v>32</v>
       </c>
       <c r="N498" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O498" s="2" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="P498" s="2" t="s">
         <v>34</v>
@@ -36530,10 +36524,10 @@
         <v>32</v>
       </c>
       <c r="N499" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O499" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P499" s="2" t="s">
         <v>34</v>
@@ -36601,7 +36595,7 @@
         <v>59</v>
       </c>
       <c r="O500" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="P500" s="2" t="s">
         <v>34</v>
@@ -36642,16 +36636,16 @@
         <v>702</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>69</v>
+        <v>418</v>
       </c>
       <c r="H501" s="1" t="s">
-        <v>70</v>
+        <v>419</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="J501" s="2" t="s">
         <v>29</v>
@@ -36666,10 +36660,10 @@
         <v>32</v>
       </c>
       <c r="N501" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O501" s="2" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="P501" s="2" t="s">
         <v>34</v>
@@ -36710,16 +36704,16 @@
         <v>702</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>418</v>
+        <v>48</v>
       </c>
       <c r="H502" s="1" t="s">
-        <v>419</v>
+        <v>49</v>
       </c>
       <c r="I502" s="1" t="s">
-        <v>420</v>
+        <v>49</v>
       </c>
       <c r="J502" s="2" t="s">
         <v>29</v>
@@ -36734,13 +36728,13 @@
         <v>32</v>
       </c>
       <c r="N502" s="2" t="s">
-        <v>34</v>
+        <v>722</v>
       </c>
       <c r="O502" s="2" t="s">
-        <v>154</v>
+        <v>723</v>
       </c>
       <c r="P502" s="2" t="s">
-        <v>34</v>
+        <v>724</v>
       </c>
       <c r="Q502" s="2" t="s">
         <v>34</v>
@@ -36772,22 +36766,22 @@
         <v>22</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>702</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>48</v>
+        <v>512</v>
       </c>
       <c r="H503" s="1" t="s">
-        <v>49</v>
+        <v>513</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>49</v>
+        <v>514</v>
       </c>
       <c r="J503" s="2" t="s">
         <v>29</v>
@@ -36802,13 +36796,13 @@
         <v>32</v>
       </c>
       <c r="N503" s="2" t="s">
-        <v>723</v>
+        <v>34</v>
       </c>
       <c r="O503" s="2" t="s">
-        <v>724</v>
+        <v>51</v>
       </c>
       <c r="P503" s="2" t="s">
-        <v>725</v>
+        <v>34</v>
       </c>
       <c r="Q503" s="2" t="s">
         <v>34</v>
@@ -36846,16 +36840,16 @@
         <v>702</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H504" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="J504" s="2" t="s">
         <v>29</v>
@@ -36870,10 +36864,10 @@
         <v>32</v>
       </c>
       <c r="N504" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="O504" s="2" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="P504" s="2" t="s">
         <v>34</v>
@@ -36914,16 +36908,16 @@
         <v>702</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>515</v>
+        <v>285</v>
       </c>
       <c r="H505" s="1" t="s">
-        <v>516</v>
+        <v>286</v>
       </c>
       <c r="I505" s="1" t="s">
-        <v>517</v>
+        <v>287</v>
       </c>
       <c r="J505" s="2" t="s">
         <v>29</v>
@@ -36938,10 +36932,10 @@
         <v>32</v>
       </c>
       <c r="N505" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O505" s="2" t="s">
-        <v>216</v>
+        <v>559</v>
       </c>
       <c r="P505" s="2" t="s">
         <v>34</v>
@@ -36982,16 +36976,16 @@
         <v>702</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>285</v>
+        <v>549</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>286</v>
+        <v>550</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>287</v>
+        <v>550</v>
       </c>
       <c r="J506" s="2" t="s">
         <v>29</v>
@@ -37006,10 +37000,10 @@
         <v>32</v>
       </c>
       <c r="N506" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="O506" s="2" t="s">
-        <v>507</v>
+        <v>83</v>
       </c>
       <c r="P506" s="2" t="s">
         <v>34</v>
@@ -37050,16 +37044,16 @@
         <v>702</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>549</v>
+        <v>39</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>550</v>
+        <v>40</v>
       </c>
       <c r="I507" s="1" t="s">
-        <v>550</v>
+        <v>40</v>
       </c>
       <c r="J507" s="2" t="s">
         <v>29</v>
@@ -37074,10 +37068,10 @@
         <v>32</v>
       </c>
       <c r="N507" s="2" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="O507" s="2" t="s">
-        <v>74</v>
+        <v>730</v>
       </c>
       <c r="P507" s="2" t="s">
         <v>34</v>
@@ -37112,22 +37106,22 @@
         <v>22</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>702</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J508" s="2" t="s">
         <v>29</v>
@@ -37145,7 +37139,7 @@
         <v>34</v>
       </c>
       <c r="O508" s="2" t="s">
-        <v>51</v>
+        <v>504</v>
       </c>
       <c r="P508" s="2" t="s">
         <v>34</v>
@@ -37180,22 +37174,22 @@
         <v>22</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>702</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="I509" s="1" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="J509" s="2" t="s">
         <v>29</v>
@@ -37210,10 +37204,10 @@
         <v>32</v>
       </c>
       <c r="N509" s="2" t="s">
-        <v>221</v>
+        <v>83</v>
       </c>
       <c r="O509" s="2" t="s">
-        <v>732</v>
+        <v>197</v>
       </c>
       <c r="P509" s="2" t="s">
         <v>34</v>
@@ -37248,22 +37242,22 @@
         <v>22</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>702</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="I510" s="1" t="s">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="J510" s="2" t="s">
         <v>29</v>
@@ -37278,10 +37272,10 @@
         <v>32</v>
       </c>
       <c r="N510" s="2" t="s">
-        <v>34</v>
+        <v>552</v>
       </c>
       <c r="O510" s="2" t="s">
-        <v>521</v>
+        <v>292</v>
       </c>
       <c r="P510" s="2" t="s">
         <v>34</v>
@@ -37316,22 +37310,22 @@
         <v>22</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>702</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="I511" s="1" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="J511" s="2" t="s">
         <v>29</v>
@@ -37346,10 +37340,10 @@
         <v>32</v>
       </c>
       <c r="N511" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O511" s="2" t="s">
-        <v>199</v>
+        <v>416</v>
       </c>
       <c r="P511" s="2" t="s">
         <v>34</v>
@@ -37384,22 +37378,22 @@
         <v>22</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>702</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>342</v>
+        <v>663</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>343</v>
+        <v>664</v>
       </c>
       <c r="I512" s="1" t="s">
-        <v>343</v>
+        <v>664</v>
       </c>
       <c r="J512" s="2" t="s">
         <v>29</v>
@@ -37414,10 +37408,10 @@
         <v>32</v>
       </c>
       <c r="N512" s="2" t="s">
-        <v>629</v>
+        <v>34</v>
       </c>
       <c r="O512" s="2" t="s">
-        <v>325</v>
+        <v>51</v>
       </c>
       <c r="P512" s="2" t="s">
         <v>34</v>
@@ -37452,22 +37446,22 @@
         <v>22</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>702</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>178</v>
+        <v>478</v>
       </c>
       <c r="I513" s="1" t="s">
-        <v>179</v>
+        <v>478</v>
       </c>
       <c r="J513" s="2" t="s">
         <v>29</v>
@@ -37482,10 +37476,10 @@
         <v>32</v>
       </c>
       <c r="N513" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="O513" s="2" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="P513" s="2" t="s">
         <v>34</v>
@@ -37526,16 +37520,16 @@
         <v>702</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>663</v>
+        <v>435</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>664</v>
+        <v>436</v>
       </c>
       <c r="I514" s="1" t="s">
-        <v>664</v>
+        <v>436</v>
       </c>
       <c r="J514" s="2" t="s">
         <v>29</v>
@@ -37550,10 +37544,10 @@
         <v>32</v>
       </c>
       <c r="N514" s="2" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="O514" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="P514" s="2" t="s">
         <v>34</v>
@@ -37574,142 +37568,6 @@
         <v>35</v>
       </c>
       <c r="V514" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="E515" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F515" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G515" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H515" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I515" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J515" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K515" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L515" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M515" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N515" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O515" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P515" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q515" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R515" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S515" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T515" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U515" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V515" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="E516" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F516" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G516" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H516" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="I516" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J516" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K516" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L516" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M516" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N516" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O516" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P516" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q516" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R516" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S516" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T516" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U516" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V516" s="2" t="s">
         <v>34</v>
       </c>
     </row>
